--- a/result/guigui2- FR001400B4A4result.xlsx
+++ b/result/guigui2- FR001400B4A4result.xlsx
@@ -524,7 +524,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>morgan</t>
+          <t>goldman sachs International</t>
         </is>
       </c>
     </row>
@@ -558,7 +558,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>coupon phoenix</t>
+          <t>coupon autocall</t>
         </is>
       </c>
     </row>
@@ -575,7 +575,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>année</t>
+          <t>trimestre</t>
         </is>
       </c>
     </row>
@@ -592,7 +592,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>1.00</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>EURO STOXX 50 Price EUR</t>
+          <t>BNP Paribas et Stellantis NV et Veolia Environnement SA</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>mono indice</t>
+          <t>wo action</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -898,7 +898,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2023-08-02</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -1059,41 +1059,6 @@
       <c r="D1" t="inlineStr">
         <is>
           <t>Flux</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1073,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
@@ -1126,35 +1091,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>31/07/2023, 29/07/2024, 29/07/2025, 29/07/2026, 29/07/2027, 31/07/2028, 30/07/2029, 29/07/2030, 29/07/2031, 29/07/2032, 29/07/2032</t>
+          <t>31/07/2023, 30/10/2023, 29/01/2024, 29/04/2024, 29/07/2024, 29/10/2024, 29/01/2025, 29/04/2025, 29/07/2025, 29/10/2025, 29/01/2026, 29/04/2026, 29/07/2026, 29/10/2026, 29/01/2027, 29/04/2027, 29/07/2027, 29/10/2027, 31/01/2028, 02/05/2028, 31/07/2028, 30/10/2028, 29/01/2029, 30/04/2029, 30/07/2029, 29/10/2029, 29/01/2030, 29/04/2030, 29/07/2030, 29/10/2030, 29/01/2031, 29/04/2031, 29/07/2031, 29/10/2031, 29/01/2032, 29/04/2032, 29/07/2032, 29/07/2032</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dates de paiement1</t>
+          <t>Dates de remboursement</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>07/08/2023, 07/08/2023, 05/08/2024, 05/08/2025, 05/08/2026, 05/08/2027, 07/08/2028, 06/08/2029, 05/08/2030, 05/08/2031, 05/08/2032</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Dates de remboursement</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>07/08/2023, 05/08/2024, 05/08/2025, 05/08/2026, 05/08/2027, 07/08/2028, 06/08/2029, 05/08/2030, 05/08/2031</t>
+          <t>07/08/2023, 06/11/2023, 05/02/2024, 07/05/2024, 05/08/2024, 05/11/2024, 05/02/2025, 07/05/2025, 05/08/2025, 05/11/2025, 05/02/2026, 07/05/2026, 05/08/2026, 05/11/2026, 05/02/2027, 06/05/2027, 05/08/2027, 05/11/2027, 07/02/2028, 09/05/2028, 07/08/2028, 06/11/2028, 05/02/2029, 08/05/2029, 06/08/2029, 05/11/2029, 05/02/2030, 07/05/2030, 05/08/2030, 05/11/2030, 05/02/2031, 07/05/2031, 05/08/2031, 05/11/2031, 05/02/2032, 06/05/2032</t>
         </is>
       </c>
     </row>

--- a/result/guigui2- FR001400B4A4result.xlsx
+++ b/result/guigui2- FR001400B4A4result.xlsx
@@ -490,7 +490,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>anglais</t>
+          <t>français</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>goldman sachs International</t>
+          <t>Natixis</t>
         </is>
       </c>
     </row>
@@ -558,7 +558,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>coupon autocall</t>
+          <t>coupon phoenix</t>
         </is>
       </c>
     </row>
@@ -575,7 +575,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>trimestre</t>
+          <t>mois</t>
         </is>
       </c>
     </row>
@@ -592,7 +592,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.1</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BNP Paribas et Stellantis NV et Veolia Environnement SA</t>
+          <t>EURO STOXX 50 Price EUR</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>wo action</t>
+          <t>mono indice</t>
         </is>
       </c>
     </row>
@@ -660,7 +660,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>degressif</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.55</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50.5</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>80</t>
         </is>
       </c>
     </row>
@@ -830,7 +830,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>29/07/2023</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2030-07-29</t>
+          <t>29/07/2032</t>
         </is>
       </c>
     </row>
@@ -864,7 +864,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2032-07-29</t>
+          <t>29/07/2032</t>
         </is>
       </c>
     </row>
@@ -898,7 +898,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2023-08-02</t>
+          <t>08/02/2023</t>
         </is>
       </c>
     </row>
@@ -915,7 +915,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2030-08-02</t>
+          <t>02/08/2030</t>
         </is>
       </c>
     </row>
@@ -932,7 +932,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2032-08-02</t>
+          <t>02/08/2032</t>
         </is>
       </c>
     </row>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -1059,6 +1059,41 @@
       <c r="D1" t="inlineStr">
         <is>
           <t>Flux</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1073,7 +1108,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
@@ -1091,21 +1126,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>31/07/2023, 30/10/2023, 29/01/2024, 29/04/2024, 29/07/2024, 29/10/2024, 29/01/2025, 29/04/2025, 29/07/2025, 29/10/2025, 29/01/2026, 29/04/2026, 29/07/2026, 29/10/2026, 29/01/2027, 29/04/2027, 29/07/2027, 29/10/2027, 31/01/2028, 02/05/2028, 31/07/2028, 30/10/2028, 29/01/2029, 30/04/2029, 30/07/2029, 29/10/2029, 29/01/2030, 29/04/2030, 29/07/2030, 29/10/2030, 29/01/2031, 29/04/2031, 29/07/2031, 29/10/2031, 29/01/2032, 29/04/2032, 29/07/2032, 29/07/2032</t>
+          <t>28/08/2023, 28/09/2023, 30/10/2023, 28/11/2023, 28/12/2023, 29/01/2024, 28/02/2024, 28/03/2024, 29/04/2024, 28/05/2024, 28/06/2024, 29/07/2024, 28/08/2024, 30/09/2024, 28/10/2024, 28/11/2024, 30/12/2024, 28/01/2025, 28/02/2025, 28/03/2025, 28/04/2025, 28/05/2025, 30/06/2025, 28/07/2025, 28/08/2025, 29/09/2025, 28/10/2025, 28/11/2025, 29/12/2025, 28/01/2026, 02/03/2026, 30/03/2026, 28/04/2026, 28/05/2026, 29/06/2026, 28/07/2026, 28/08/2026, 28/09/2026, 28/10/2026, 30/11/2026, 28/12/2026, 28/01/2027, 01/03/2027, 30/03/2027, 28/04/2027, 28/05/2027, 28/06/2027, 28/07/2027, 30/08/2027, 28/09/2027, 28/10/2027, 29/11/2027, 28/12/2027, 28/01/2028, 28/02/2028, 28/03/2028, 28/04/2028, 29/05/2028, 28/06/2028, 28/07/2028, 28/08/2028, 28/09/2028, 30/10/2028, 28/11/2028, 28/12/2028, 29/01/2029, 28/02/2029, 28/03/2029, 30/04/2029, 28/05/2029, 28/06/2029, 30/07/2029, 28/08/2029, 28/09/2029, 29/10/2029, 28/11/2029, 28/12/2029, 28/01/2030, 28/02/2030, 28/03/2030, 29/04/2030, 28/05/2030, 28/06/2030, 29/07/2030, 28/08/2030, 30/09/2030, 28/10/2030, 28/11/2030, 30/12/2030, 28/01/2031, 28/02/2031, 28/03/2031, 28/04/2031, 28/05/2031, 30/06/2031, 28/07/2031, 28/08/2031, 29/09/2031, 28/10/2031, 28/11/2031, 29/12/2031, 28/01/2032, 01/03/2032, 30/03/2032, 28/04/2032, 28/05/2032, 28/06/2032, 28/07/2032, 29/07/2032</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dates de remboursement</t>
+          <t>Dates de paiement1</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>07/08/2023, 06/11/2023, 05/02/2024, 07/05/2024, 05/08/2024, 05/11/2024, 05/02/2025, 07/05/2025, 05/08/2025, 05/11/2025, 05/02/2026, 07/05/2026, 05/08/2026, 05/11/2026, 05/02/2027, 06/05/2027, 05/08/2027, 05/11/2027, 07/02/2028, 09/05/2028, 07/08/2028, 06/11/2028, 05/02/2029, 08/05/2029, 06/08/2029, 05/11/2029, 05/02/2030, 07/05/2030, 05/08/2030, 05/11/2030, 05/02/2031, 07/05/2031, 05/08/2031, 05/11/2031, 05/02/2032, 06/05/2032</t>
+          <t>chaque 13 du mois, à partir de la fin du  mois, à partir de la date du 2022-02-13(inclus),  et jusqu'au 2032-07-29 (inclus), ou le jour ouvré suivant si le 13 du mois n'est pas un jour ouvré</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Dates de remboursement</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>04/09/2023, 05/10/2023, 06/11/2023, 05/12/2023, 05/01/2024, 05/02/2024, 06/03/2024, 08/04/2024, 07/05/2024, 04/06/2024, 05/07/2024, 05/08/2024, 04/09/2024, 07/10/2024, 04/11/2024, 05/12/2024, 07/01/2025, 04/02/2025, 07/03/2025, 04/04/2025, 06/05/2025, 04/06/2025, 07/07/2025, 04/08/2025, 04/09/2025, 06/10/2025, 04/11/2025, 05/12/2025, 06/01/2026, 04/02/2026, 09/03/2026, 08/04/2026, 06/05/2026, 04/06/2026, 06/07/2026, 04/08/2026, 04/09/2026, 05/10/2026, 04/11/2026, 07/12/2026, 05/01/2027, 04/02/2027, 08/03/2027, 06/04/2027, 05/05/2027, 04/06/2027, 05/07/2027, 04/08/2027, 06/09/2027, 05/10/2027, 04/11/2027, 06/12/2027, 04/01/2028, 04/02/2028, 06/03/2028, 04/04/2028, 08/05/2028, 05/06/2028, 05/07/2028, 04/08/2028, 04/09/2028, 05/10/2028, 06/11/2028, 05/12/2028, 05/01/2029, 05/02/2029, 07/03/2029, 06/04/2029, 08/05/2029, 04/06/2029, 05/07/2029, 06/08/2029, 04/09/2029, 05/10/2029, 05/11/2029, 05/12/2029, 07/01/2030, 04/02/2030, 07/03/2030, 04/04/2030, 07/05/2030, 04/06/2030, 05/07/2030, 05/08/2030, 04/09/2030, 07/10/2030, 04/11/2030, 05/12/2030, 07/01/2031, 04/02/2031, 07/03/2031, 04/04/2031, 06/05/2031, 04/06/2031, 07/07/2031, 04/08/2031, 04/09/2031, 06/10/2031, 04/11/2031, 05/12/2031, 06/01/2032, 04/02/2032, 08/03/2032, 06/04/2032, 05/05/2032, 04/06/2032, 05/07/2032</t>
         </is>
       </c>
     </row>
